--- a/docs/temple.xlsx
+++ b/docs/temple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyongsheng/blockchain/CSBSN/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944A2517-91C2-D644-8677-87661437AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E117602-397E-474C-8BE8-4E3E8281162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="13360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Pablo</t>
   </si>
   <si>
-    <t>0x871608cBA092105b91e91295A1d79fFC2492BFb22</t>
-  </si>
-  <si>
     <t>NFT制作与发行</t>
   </si>
   <si>
@@ -63,6 +60,10 @@
   </si>
   <si>
     <t>DeSoc营地分享人</t>
+  </si>
+  <si>
+    <t>0xbFc14BC72590eB653AF0873d3401Fac602942Ad3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -81,7 +82,8 @@
       <sz val="12"/>
       <color rgb="FF24272A"/>
       <name val="新細明體"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,7 +450,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -480,10 +482,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -491,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47" customHeight="1">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -552,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
